--- a/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="330">
   <si>
     <t>Asignatura</t>
   </si>
@@ -443,12 +443,6 @@
     <t>Recurso M2C-01</t>
   </si>
   <si>
-    <t>Actividad para realizar un diagnóstico sobre la utilización correcta de la "s"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(DBA: 10) A partir de un texto proponer varias opciones de escritura para las palabras con "s" (una de ellas correcta). </t>
-  </si>
-  <si>
     <t>(DBA: 10) Observar que cambian titulo y descripción.</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
   </si>
   <si>
     <t>(DBA: 1, 4, 12) Cambiar expresiones al "español colombiano". Revisar fichas, sobre todo. Observar que cambia el titulo y la descripción.</t>
-  </si>
-  <si>
-    <t>(DBA: 6) Diseñar preguntas/instrucciones que orienten al estudiante en la producción de un texto en el cual exponga sus reflexiones sobre la utilidad de un protocolo y los receptores a los que está dirigido este tipo de texto.</t>
   </si>
   <si>
     <t>✓</t>
@@ -693,9 +684,6 @@
     <t>Lingüística: el texto y sus propiedades</t>
   </si>
   <si>
-    <t>Proponer un texto descriptivo, uno expositivo, uno narrativo, uno instructivo y uno argumentativo para ser grabados, y que el estudiante asigne la etiqueta correspondiente.</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -705,9 +693,6 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>El texto</t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
@@ -723,28 +708,10 @@
     <t>Recurso M5D-02</t>
   </si>
   <si>
-    <t>Las propiedades del texto</t>
-  </si>
-  <si>
     <t>Recurso M1C-02</t>
   </si>
   <si>
-    <t>La cohesión</t>
-  </si>
-  <si>
-    <t>Asocia las propiedades del texto con su definición correspondiente</t>
-  </si>
-  <si>
-    <t>Actividad para practicar los criterios de textualidad</t>
-  </si>
-  <si>
-    <t>La coherencia</t>
-  </si>
-  <si>
     <t>Determina si los textos son coherentes o no</t>
-  </si>
-  <si>
-    <t>Presentar por un lado 5 propiedades del texto (cohesión, coherencia, intencionalidad, etc.), y por el otro una breve definición de cada una para  que sea asociada correctamente por el estudiante.</t>
   </si>
   <si>
     <t xml:space="preserve">Presentar textos para ser grabados, tanto que respeten la propiedd de coherencia como que no. Luego etiquetas "Respeta la coherencia" o "Coherente", "Incoherente", por ejemplo, para que el estudiante las asocie.  </t>
@@ -786,21 +753,9 @@
     <t>Lectura crítica: los elementos básicos del protocolo</t>
   </si>
   <si>
-    <t>Producción escrita: reflexiona sobre la utilidad de un protocolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: El texto y sus propiedades </t>
-  </si>
-  <si>
-    <t>Actividad para afianzar los conocimientos sobre el texto y sus propiedades</t>
-  </si>
-  <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
-    <t>Diseñar preguntas/instrucciones que orienten al estudiante en una investigación sobre el texto y sus propiedades. Preguntar por la obra de van Dijk y sus aportes.</t>
-  </si>
-  <si>
     <t>El comentario de texto</t>
   </si>
   <si>
@@ -822,9 +777,6 @@
     <t>Recurso M2A-01</t>
   </si>
   <si>
-    <t>Interactivo que presenta las propiedades y estructura del texto desde el punto de vista lingüístico</t>
-  </si>
-  <si>
     <t>Completa el texto para que adquiera cohesión</t>
   </si>
   <si>
@@ -1041,9 +993,6 @@
     <t>(DBA: 11,12,13) Es M101 (apropiado para la sección Consolidación).</t>
   </si>
   <si>
-    <t>(DBA: 2,9) Diseñar interactivo que presente la definición de texto, sus propiedades (criterios de textualidad) y estructura desde el punto de vista lingüístico, con ejemplos e imágenes. Puede ser útil consultar: http://cvc.cervantes.es/ensenanza/biblioteca_ele/diccio_ele/diccionario/linguisticatextual.htm</t>
-  </si>
-  <si>
     <t xml:space="preserve">(DBA:9) Proponer preguntas sobre la macroestructura y la superestrucutura de textos, a partir de fragmentos. </t>
   </si>
   <si>
@@ -1065,22 +1014,70 @@
     <t xml:space="preserve">(DBA:2) En la imagen que permite el recurso insertar ejemplo breve de protocolo (se podría realizar en Word, guardar en pdf y luego volverlo a formato jpg; se puede solicitar, en todo caso, la ayuda de la documentadora gráfica). Luego diseñar etiquetas que el estudiante deberá ordenar correctamente de acuerdo a la estructura del protocolo. </t>
   </si>
   <si>
-    <t>(DBA: 2, 9)Presentar texto para ser grabado y luego etiquetas con los temas tratados para que el estudiante las organice secuencialmente. La idea es que el estudiante practique la identificación de la secuencia temática, con miras a la producción de un protocolo, entonces el texto a grabar debería ser el de una intervención de un conversatorio, por ejemplo, o una exposición de un profesor, una plenaria. Para que haya concordancia con el resto de la secciones, el audio podría versar sobre el texto lingüístico.</t>
-  </si>
-  <si>
-    <t>(DBA: 1,2,9)Diseñar interactivo de acuerdo al documento INSTRUCCIONES PARA COMPRENSIÓN, ESCRITURA Y EXPRESIÓN ORAL. Buscar que el protocolo propuesto en la casilla Lectura verse sobre una exposición sobre la literatura del Barroco. Puede ser útil consultar: http://www.slideshare.net/FelipeGarciaMajorel/tipos-de-texto-el-protocolo</t>
-  </si>
-  <si>
     <t>(DBA: 6,8) Diseñar preguntas sobre la experiencia de realizar un protocolo. En una de ellas debe solicitarse que el estudiante presente un protocolo de una clase de español o literatura.</t>
   </si>
   <si>
-    <t>(DBA: 1,2,4,12) Es M102 (motor requerido para Consolidación). Observar cambios de titulo y descripción. Modificar titulo del motor F incrustado. Revisar vínculos en botón Investiga, especialmente el de Gran Enciclopedia Planeta.</t>
-  </si>
-  <si>
     <t>(DBA: 2) Presentar protocolos breves o fragmentos de protocolos y diseñar preguntas sobre todo de tipo estructural. En un caso el protocolo podría seguir la secuencia cronológica de los temas del evento, plenaria o exposición; en otro, los temas se relacionarían de acuerdo a su importancia.</t>
   </si>
   <si>
     <t>(DBA:3,6,9) Prsentar instrucciones o pasos para realizar un protocolo de acuerdo al documento INSTRUCCIONES PARA COMPRENSIÓN, ESCRITURA Y EXPRESIÓN ORAL. El protocolo será de un trabajo de grupo, una exposición,  una plenaria o dinámica. No una clase, pues esto se solicita en el recurso de Consolidación.</t>
+  </si>
+  <si>
+    <t>Actividad para realizar un diagnóstico sobre la utilización correcta de la "s" y la "x"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(DBA: 10) A partir de un texto proponer varias opciones de escritura para las palabras con "s" y con "x" (una de ellas correcta). </t>
+  </si>
+  <si>
+    <t>(DBA: 6) Diseñar preguntas/instrucciones que orienten al estudiante en la producción de un texto en el cual exponga sus reflexiones sobre la utilidad de un protocolo y los receptores a los que está dirigido este tipo de texto. El siguiente enlace podría ser de ayuda: http://www.slideshare.net/FelipeGarciaMajorel/tipos-de-texto-el-protocolo</t>
+  </si>
+  <si>
+    <t>Lectura crítica y producción escrita: reflexiona sobre el protocolo</t>
+  </si>
+  <si>
+    <t>El discurso</t>
+  </si>
+  <si>
+    <t>(DBA: 2,9) Diseñar interactivo que presente la definición de discurso, sus propiedades (criterios de textualidad) y estructura desde el punto de vista lingüístico, con ejemplos e imágenes. Puede ser útil consultar: http://cvc.cervantes.es/ensenanza/biblioteca_ele/diccio_ele/diccionario/linguisticatextual.htm</t>
+  </si>
+  <si>
+    <t>Lingüística: el discurso y sus modalidades</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta las modalidades del discurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El discurso y sus modalidades </t>
+  </si>
+  <si>
+    <t>Proponer un texto descriptivo, uno expositivo, uno narrativo y uno argumentativo para ser grabados, y que el estudiante asigne la etiqueta correspondiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contexto del discurso </t>
+  </si>
+  <si>
+    <t>Asocia las modalidades con su definición correspondiente</t>
+  </si>
+  <si>
+    <t>Actividad para practicar los modos del discurso</t>
+  </si>
+  <si>
+    <t>Presentar por un lado las moddalidades del discurso (descripción, narración, diálogo, exposición y argumentación), y por el otro una breve definición de cada una para  que sea asociada correctamente por el estudiante.</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar los conocimientos sobre el discurso y sus modalidades</t>
+  </si>
+  <si>
+    <t>Diseñar preguntas/instrucciones que orienten al estudiante en una investigación sobre el discurso y sus modalidades.</t>
+  </si>
+  <si>
+    <t>(DBA: 1,2,9)Diseñar interactivo de acuerdo al documento INSTRUCCIONES PARA COMPRENSIÓN, ESCRITURA Y EXPRESIÓN ORAL. En lo posible, buscar que el protocolo propuesto en la casilla Lectura verse sobre una exposición sobre la literatura del Barroco. Puede ser útil consultar: http://www.slideshare.net/FelipeGarciaMajorel/tipos-de-texto-el-protocolo</t>
+  </si>
+  <si>
+    <t>(DBA: 2, 9)Presentar texto para ser grabado y luego etiquetas con sus temas para que el estudiante las organice secuencialmente. La idea es que el estudiante practique la identificación de la secuencia temática, con miras a la producción de un protocolo, entonces el texto a grabar debería ser el de una actividad que normalmente requiera un protocolo.</t>
+  </si>
+  <si>
+    <t>(DBA: 1,2,4,12) Es M102 (motor requerido para Proyecto de Competencias). Observar cambios de titulo y descripción. Modificar titulo del motor F incrustado. Revisar vínculos en botón Investiga, especialmente el de Gran Enciclopedia Planeta.</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,6 +1254,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1386,7 +1389,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1624,8 +1627,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1692,14 +1697,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1707,13 +1706,55 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,24 +1781,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="239">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1876,6 +1901,7 @@
     <cellStyle name="Hipervínculo" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1994,6 +2020,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2290,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2320,94 +2347,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="42">
       <c r="A3" s="8" t="s">
@@ -2425,13 +2452,13 @@
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="29" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
       </c>
       <c r="I3" s="21"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>129</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -2444,7 +2471,7 @@
       <c r="N3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>128</v>
       </c>
       <c r="P3" s="26" t="s">
@@ -2482,7 +2509,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
       <c r="G4" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H4" s="31">
         <v>2</v>
@@ -2501,8 +2528,8 @@
       <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>208</v>
+      <c r="O4" s="32" t="s">
+        <v>320</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>19</v>
@@ -2524,57 +2551,57 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="28">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="42">
         <v>3</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="27" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="41" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2594,14 +2621,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
       <c r="G6" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H6" s="31">
         <v>4</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="4" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -2613,8 +2640,8 @@
       <c r="N6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="33" t="s">
-        <v>141</v>
+      <c r="O6" s="32" t="s">
+        <v>312</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>19</v>
@@ -2636,63 +2663,63 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="112">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="42">
         <v>5</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" s="34" t="s">
+      <c r="O7" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="41">
         <v>6</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="6" t="s">
+      <c r="T7" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="70">
+    <row r="8" spans="1:21" ht="112">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -2708,14 +2735,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
       <c r="G8" s="30" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>20</v>
@@ -2727,8 +2754,8 @@
       <c r="N8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="33" t="s">
-        <v>158</v>
+      <c r="O8" s="32" t="s">
+        <v>313</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>19</v>
@@ -2743,71 +2770,71 @@
         <v>125</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="42">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="H9" s="42">
+        <v>7</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="K9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="31">
-        <v>7</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+      <c r="U9" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28">
@@ -2821,25 +2848,25 @@
         <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="31">
         <v>8</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>19</v>
@@ -2849,26 +2876,26 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="33" t="s">
-        <v>163</v>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="28">
@@ -2882,23 +2909,23 @@
         <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="31">
         <v>9</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>19</v>
@@ -2908,87 +2935,87 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="33" t="s">
-        <v>169</v>
+      <c r="O11" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U11" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28">
+      <c r="A12" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="42">
+        <v>10</v>
+      </c>
+      <c r="I12" s="47" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="28">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="31">
-        <v>10</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="J12" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="P12" s="27" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="P12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="28">
@@ -3002,25 +3029,25 @@
         <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H13" s="31">
         <v>11</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>159</v>
+      <c r="I13" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>19</v>
@@ -3030,26 +3057,26 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="33" t="s">
-        <v>177</v>
+      <c r="O13" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="28">
@@ -3063,25 +3090,25 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H14" s="31">
         <v>12</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>159</v>
+      <c r="I14" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>19</v>
@@ -3091,84 +3118,84 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="33" t="s">
-        <v>181</v>
+      <c r="O14" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="42">
+      <c r="A15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="42">
+        <v>13</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>6</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="42">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="31">
-        <v>13</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>6</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3183,25 +3210,25 @@
         <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>159</v>
+      <c r="I16" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>19</v>
@@ -3211,26 +3238,26 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="33" t="s">
-        <v>314</v>
+      <c r="O16" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -3244,23 +3271,23 @@
         <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>19</v>
@@ -3270,24 +3297,24 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="32"/>
       <c r="P17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="70">
@@ -3301,23 +3328,23 @@
         <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>159</v>
+      <c r="I18" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>19</v>
@@ -3327,26 +3354,26 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="33" t="s">
-        <v>315</v>
+      <c r="O18" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="28">
@@ -3360,21 +3387,21 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>19</v>
@@ -3384,84 +3411,84 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="33" t="s">
-        <v>316</v>
+      <c r="O19" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="28">
+      <c r="A20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="28">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="31">
+      <c r="H20" s="42">
         <v>18</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="39"/>
+      <c r="J20" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="39"/>
+      <c r="N20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="27" t="s">
+      <c r="O20" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P20" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="48">
         <v>6</v>
       </c>
-      <c r="R20" s="24" t="s">
+      <c r="R20" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T20" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="U20" s="23" t="s">
+      <c r="T20" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="U20" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3476,23 +3503,23 @@
         <v>123</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="H21" s="31">
         <v>19</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>159</v>
+      <c r="I21" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
@@ -3504,8 +3531,8 @@
         <v>55</v>
       </c>
       <c r="N21" s="11"/>
-      <c r="O21" s="33" t="s">
-        <v>317</v>
+      <c r="O21" s="32" t="s">
+        <v>316</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -3514,196 +3541,188 @@
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="42">
+      <c r="A22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="T21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="U21" s="6" t="s">
+      <c r="H22" s="42">
+        <v>20</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="41" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="42">
-      <c r="A22" s="8" t="s">
+      <c r="K22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>6</v>
+      </c>
+      <c r="R22" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="T22" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="U22" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="28">
+      <c r="A23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="42">
+        <v>21</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="R23" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="S23" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T23" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="70">
+      <c r="A24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="3" t="s">
+      <c r="H24" s="42">
+        <v>22</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="31">
-        <v>20</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="P22" s="27" t="s">
+      <c r="P24" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q24" s="41">
         <v>6</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R24" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S24" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="T22" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="U22" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="28">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="31">
-        <v>21</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="70">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="31">
-        <v>22</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>6</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3718,23 +3737,21 @@
         <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>220</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="4" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3746,8 +3763,8 @@
       <c r="N25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="33" t="s">
-        <v>225</v>
+      <c r="O25" s="32" t="s">
+        <v>324</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>19</v>
@@ -3762,13 +3779,13 @@
         <v>125</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="56">
+    <row r="26" spans="1:21" ht="42">
       <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3779,21 +3796,21 @@
         <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="4" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>20</v>
@@ -3805,8 +3822,8 @@
       <c r="N26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="33" t="s">
-        <v>236</v>
+      <c r="O26" s="32" t="s">
+        <v>326</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>19</v>
@@ -3821,7 +3838,7 @@
         <v>125</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>127</v>
@@ -3838,21 +3855,21 @@
         <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
       </c>
-      <c r="I27" s="35" t="s">
-        <v>159</v>
+      <c r="I27" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>20</v>
@@ -3864,8 +3881,8 @@
         <v>118</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="33" t="s">
-        <v>319</v>
+      <c r="O27" s="32" t="s">
+        <v>302</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
@@ -3877,71 +3894,71 @@
         <v>124</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="42">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H28" s="31">
+      <c r="D28" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="42">
         <v>26</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="I28" s="39"/>
+      <c r="J28" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="39"/>
+      <c r="N28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="P28" s="27" t="s">
+      <c r="O28" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="P28" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="48">
         <v>6</v>
       </c>
-      <c r="R28" s="24" t="s">
+      <c r="R28" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="S28" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T28" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="U28" s="23" t="s">
+      <c r="T28" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="U28" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3956,21 +3973,21 @@
         <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H29" s="31">
         <v>27</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>19</v>
@@ -3980,26 +3997,26 @@
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="33" t="s">
-        <v>322</v>
+      <c r="O29" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="56">
@@ -4013,21 +4030,21 @@
         <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H30" s="31">
         <v>28</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>20</v>
@@ -4039,8 +4056,8 @@
       <c r="N30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="33" t="s">
-        <v>321</v>
+      <c r="O30" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>19</v>
@@ -4055,72 +4072,72 @@
         <v>125</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="42">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="31">
+      <c r="D31" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="42">
         <v>29</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="I31" s="39"/>
+      <c r="J31" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11" t="s">
+      <c r="M31" s="39"/>
+      <c r="N31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O31" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="P31" s="27" t="s">
+      <c r="O31" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="P31" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="48">
         <v>6</v>
       </c>
-      <c r="R31" s="24" t="s">
+      <c r="R31" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S31" s="23" t="s">
+      <c r="S31" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="U31" s="23" t="s">
+      <c r="T31" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="U31" s="48" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="112">
+    <row r="32" spans="1:21" ht="126">
       <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +4148,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="14"/>
@@ -4141,11 +4158,11 @@
       <c r="H32" s="31">
         <v>30</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>159</v>
+      <c r="I32" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>20</v>
@@ -4157,8 +4174,8 @@
         <v>60</v>
       </c>
       <c r="N32" s="11"/>
-      <c r="O32" s="33" t="s">
-        <v>326</v>
+      <c r="O32" s="32" t="s">
+        <v>327</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>19</v>
@@ -4167,19 +4184,19 @@
         <v>6</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="168">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="112">
       <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
@@ -4190,21 +4207,21 @@
         <v>123</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H33" s="31">
         <v>31</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="4" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>20</v>
@@ -4216,8 +4233,8 @@
       <c r="N33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="33" t="s">
-        <v>325</v>
+      <c r="O33" s="32" t="s">
+        <v>328</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>19</v>
@@ -4232,7 +4249,7 @@
         <v>125</v>
       </c>
       <c r="T33" s="25" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="U33" s="23" t="s">
         <v>127</v>
@@ -4249,21 +4266,21 @@
         <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H34" s="31">
         <v>32</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>20</v>
@@ -4275,8 +4292,8 @@
       <c r="N34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O34" s="33" t="s">
-        <v>297</v>
+      <c r="O34" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>19</v>
@@ -4291,68 +4308,68 @@
         <v>125</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="U34" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="56">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H35" s="31">
+      <c r="D35" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="42">
         <v>33</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11" t="s">
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="P35" s="27" t="s">
+      <c r="O35" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="P35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="48">
         <v>6</v>
       </c>
-      <c r="R35" s="24" t="s">
+      <c r="R35" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S35" s="23" t="s">
+      <c r="S35" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T35" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="U35" s="23" t="s">
+      <c r="T35" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="U35" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4367,21 +4384,21 @@
         <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="H36" s="31">
         <v>34</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>20</v>
@@ -4393,8 +4410,8 @@
       <c r="N36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="33" t="s">
-        <v>324</v>
+      <c r="O36" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>19</v>
@@ -4409,7 +4426,7 @@
         <v>125</v>
       </c>
       <c r="T36" s="25" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="U36" s="23" t="s">
         <v>127</v>
@@ -4426,23 +4443,23 @@
         <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H37" s="31">
         <v>35</v>
       </c>
-      <c r="I37" s="35" t="s">
-        <v>159</v>
+      <c r="I37" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>20</v>
@@ -4454,8 +4471,8 @@
         <v>61</v>
       </c>
       <c r="N37" s="11"/>
-      <c r="O37" s="33" t="s">
-        <v>330</v>
+      <c r="O37" s="32" t="s">
+        <v>310</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>19</v>
@@ -4464,16 +4481,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="70">
@@ -4487,21 +4504,21 @@
         <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="H38" s="31">
         <v>36</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>20</v>
@@ -4513,8 +4530,8 @@
       <c r="N38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="33" t="s">
-        <v>327</v>
+      <c r="O38" s="32" t="s">
+        <v>308</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>19</v>
@@ -4529,13 +4546,13 @@
         <v>125</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="U38" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="70">
+    <row r="39" spans="1:21" ht="84">
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
@@ -4546,19 +4563,19 @@
         <v>123</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="14"/>
       <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H39" s="31">
         <v>37</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>19</v>
@@ -4568,196 +4585,196 @@
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="33" t="s">
-        <v>328</v>
+      <c r="O39" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>134</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="70">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" s="31">
+      <c r="D40" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="42">
         <v>38</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" s="10" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11" t="s">
+      <c r="M40" s="39"/>
+      <c r="N40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="P40" s="27" t="s">
+      <c r="O40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="P40" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="41">
         <v>6</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="S40" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="T40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="U40" s="6" t="s">
+      <c r="T40" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="U40" s="41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="98">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H41" s="31">
+      <c r="D41" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="42">
         <v>39</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K41" s="10" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11" t="s">
+      <c r="M41" s="39"/>
+      <c r="N41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="P41" s="27" t="s">
+      <c r="O41" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="P41" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="48">
         <v>6</v>
       </c>
-      <c r="R41" s="24" t="s">
+      <c r="R41" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="S41" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T41" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="U41" s="23" t="s">
+      <c r="T41" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="U41" s="48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="56">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H42" s="31">
+      <c r="D42" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="42">
         <v>40</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="K42" s="10" t="s">
+      <c r="I42" s="39"/>
+      <c r="J42" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11" t="s">
+      <c r="M42" s="39"/>
+      <c r="N42" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="O42" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="P42" s="27" t="s">
+      <c r="O42" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="Q42" s="48">
         <v>6</v>
       </c>
-      <c r="R42" s="24" t="s">
+      <c r="R42" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S42" s="23" t="s">
+      <c r="S42" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T42" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="U42" s="23" t="s">
+      <c r="T42" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="U42" s="48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4772,7 +4789,7 @@
         <v>123</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="14"/>
@@ -4784,7 +4801,7 @@
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>20</v>
@@ -4815,19 +4832,19 @@
         <v>123</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="14"/>
       <c r="G44" s="3" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H44" s="31">
         <v>42</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>20</v>
@@ -4840,24 +4857,24 @@
         <v>32</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="52">
+      <c r="Q44" s="35">
         <v>6</v>
       </c>
-      <c r="R44" s="53" t="s">
+      <c r="R44" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="S44" s="54" t="s">
+      <c r="S44" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="T44" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="U44" s="54" t="s">
+      <c r="T44" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="U44" s="37" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4872,7 +4889,7 @@
         <v>123</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="14"/>
@@ -4882,7 +4899,7 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>20</v>
@@ -4895,7 +4912,7 @@
         <v>53</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>20</v>
@@ -4910,7 +4927,7 @@
         <v>125</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="U45" s="6" t="s">
         <v>127</v>
@@ -5109,12 +5126,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5129,73 +5140,15 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8 I11 I15 I17 I19:I20 I22 I24:I26 I28:I31 I33:I36 I38:I45">
-      <formula1>$D$48:$D$49</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$14:$E$48</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$D$1:$D$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K42 P3:P42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$B$1:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$1:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M43:M45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L43:L45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P43:P45 K43:K45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N43:N45</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
